--- a/60_Results/MITx_Week04.xlsx
+++ b/60_Results/MITx_Week04.xlsx
@@ -17,7 +17,7 @@
     <t>PROJECT</t>
   </si>
   <si>
-    <t>MITx_Week04</t>
+    <t>MITx_Week05</t>
   </si>
 </sst>
 </file>
